--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_124.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_124.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1182170542635659</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(2.5, 26.2)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(157.019, 160.636)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>jaah_22</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0404040404040404</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(44.2, 59.98)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:06.740000', '0:01:14.430000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:03.280385')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58), (85.58, 94.24)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82), (8.18, 13.26)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1863636363636363</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1319148936170213</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
+          <t>[['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(23.26, 26.8)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:52.750498', '0:00:59.809365')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:44.917324', '0:00:48.272607')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08906481939633845</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1634615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E']]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(65.103514, 72.358823)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.68228, 20.438561)]</t>
+          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1492921492921493</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.425</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(243.02, 244.86)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(64.08, 73.88)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(26.041712, 37.10602)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.04, 24.52), (6.3, 14.36)]</t>
+          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(11.219991, 14.772644)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1988636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(32.233898, 36.959159)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.2, 12.32)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.179070', '0:00:23.725555')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A', 'D', 'A', 'D', 'A'], ['D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E'], ['A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:00:05.915850', '0:00:20.672131'), ('0:00:08.899614', '0:00:23.621065')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:37.995918', '0:00:52.299410'), ('0:00:35.197913', '0:00:49.466575')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05031982942430704</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['G:7', 'C:7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['F:7', 'Bb:7', 'Bb:7']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.37, 8.66), (17.85, 20.54)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79), (61.51, 64.71)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2130681818181818</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.26, 21.16)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.04, 23.45)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1093350383631713</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(43.26, 45.66)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(21.34, 24.96)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(63.84, 67.54)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1068376068376068</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Ab/5', 'Eb', 'Bb/3', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B', 'C#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(22.841, 27.6)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.248004, 29.008095)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
